--- a/pred_ohlcv/54_21/2020-01-21 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 VALOR ohlcv.xlsx
@@ -1120,7 +1120,7 @@
         <v>-199520.8850606679</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-199520.8850606679</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-199521.8854606679</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-201363.0503606679</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-201360.8421606679</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-343027.2641430139</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-338570.5141430139</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-353453.3741430139</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-351172.0956430139</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-339556.4647727176</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-339636.7378727176</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-323235.6851844622</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-305023.1436528651</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-302569.2001528651</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-292908.5096635168</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-292917.4408635168</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-292036.1408635168</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-287086.0614528651</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-278792.0751528651</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-267297.7645528651</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-290926.5214528651</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-290926.5214528651</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-298568.0233748603</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-298568.0233748603</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-300217.1504748603</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-21 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 VALOR ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-204934.2196606679</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-199520.8850606679</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-199520.8850606679</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-199521.8854606679</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-201363.0503606679</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-201360.8421606679</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-340189.0213430139</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-340074.8293430139</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-343027.2641430139</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-338391.7527430139</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-339556.4647727176</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-339636.7378727176</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-339582.6838186635</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-339582.6838186635</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-341165.8236186635</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-336204.2343186635</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-323493.4935186636</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-322212.6397844621</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-322216.0618844621</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-319125.7452844622</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-322584.2860186636</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-322584.2860186636</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-319329.9398528651</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-319329.9398528651</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-317553.9693528651</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-317553.9693528651</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-317669.5908528651</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-304986.4292528651</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-305023.1436528651</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-305023.1436528651</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-302569.2001528651</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-292908.5096635168</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-292917.4408635168</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-292036.1408635168</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-287086.0614528651</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-278792.0751528651</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-267297.7645528651</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-290926.5214528651</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-290926.5214528651</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-295581.0139748603</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-298568.0233748603</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-298568.0233748603</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-300217.1504748603</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
